--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\channel_weights_target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49501F9-A904-4309-B9F7-AE83F518B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2694870-2A8A-4CB2-8488-E160C16BEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_driven_mi" sheetId="1" r:id="rId1"/>
@@ -284,14 +284,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -596,8 +599,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.65088194086120643</v>
+      <c r="B2" s="2">
+        <v>3.4954216373581201E-3</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -606,15 +609,15 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>7.4745951208934399E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.66418922913192979</v>
+      <c r="B3" s="2">
+        <v>3.5918765252834798E-3</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -623,15 +626,15 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0.83802155464231476</v>
+        <v>5.1887086232275297E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0.55224681919280705</v>
+      <c r="B4" s="2">
+        <v>2.8678666469829799E-3</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -640,15 +643,15 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.83645322081806717</v>
+        <v>5.17096960431674E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.56277122145893399</v>
+      <c r="B5" s="2">
+        <v>2.9281322037327702E-3</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -657,993 +660,993 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0.72925477390736981</v>
+        <v>4.1108766244722398E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0.66317429920923709</v>
+      <c r="B6" s="2">
+        <v>3.5844110769237998E-3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>0.66418922913192979</v>
+        <v>3.8593913019357301E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0.32731969311301079</v>
+      <c r="B7" s="2">
+        <v>1.87014795814102E-3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0.66317429920923709</v>
+        <v>3.5918765252834798E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0.51542237336332541</v>
+      <c r="B8" s="2">
+        <v>2.6681435527116399E-3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0.65088194086120643</v>
+        <v>3.5844110769237998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0.47293022736596441</v>
+      <c r="B9" s="2">
+        <v>2.45760188541645E-3</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0.63311341004793797</v>
+        <v>3.4954216373581201E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.48322420605930128</v>
+      <c r="B10" s="2">
+        <v>2.5067631118463399E-3</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>0.6183437690958149</v>
+        <v>3.3713225056345498E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>0.50517646733827826</v>
+      <c r="B11" s="2">
+        <v>2.6155035670140099E-3</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>0.60315609483037336</v>
+        <v>3.2720848919275099E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>0.56975111428790048</v>
+      <c r="B12" s="2">
+        <v>2.9689199235157101E-3</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>0.60287553084987744</v>
+        <v>3.1735894533662101E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>0.43211263224168123</v>
+      <c r="B13" s="2">
+        <v>2.2734712312292198E-3</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>0.60183816445180105</v>
+        <v>3.1718028893417301E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
-        <v>0.2560935971296997</v>
+      <c r="B14" s="2">
+        <v>1.64366760692653E-3</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>0.59613893358892056</v>
+        <v>3.1652074177433301E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0.39025085017525901</v>
+      <c r="B15" s="2">
+        <v>2.1011953390334698E-3</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>0.58711558918641604</v>
+        <v>3.12925771269983E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
-        <v>0.29535922643719192</v>
+      <c r="B16" s="2">
+        <v>1.7642732731989301E-3</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>0.58197614267675568</v>
+        <v>3.0733139063727501E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>0.39864681541563007</v>
+      <c r="B17" s="2">
+        <v>2.1344857037171902E-3</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>0.57972329921451959</v>
+        <v>3.0419740173744801E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <v>0.50005652717916538</v>
+      <c r="B18" s="2">
+        <v>2.5896556073195802E-3</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>0.56975111428790048</v>
+        <v>3.0283545505424298E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>0.56160434797270309</v>
+      <c r="B19" s="2">
+        <v>2.92137770909977E-3</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>0.56277122145893399</v>
+        <v>2.9689199235157101E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>0.63311341004793797</v>
+      <c r="B20" s="2">
+        <v>3.3713225056345498E-3</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>0.56224932447811871</v>
+        <v>2.9281322037327702E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>0.59613893358892056</v>
+      <c r="B21" s="2">
+        <v>3.12925771269983E-3</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>0.56160434797270309</v>
+        <v>2.9251089218812398E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22">
-        <v>0.29962217255384221</v>
+      <c r="B22" s="2">
+        <v>1.77798108948373E-3</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>0.55981186252835535</v>
+        <v>2.92137770909977E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
-        <v>0.39914252691255442</v>
+      <c r="B23" s="2">
+        <v>2.1364704712168998E-3</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>0.55297916121761459</v>
+        <v>2.9110373716215001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24">
-        <v>0.4791839972740668</v>
+      <c r="B24" s="2">
+        <v>2.4873319999726301E-3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0.55224681919280705</v>
+        <v>2.8720128752583E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" s="2">
+        <v>7.4745951208934399E-3</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>0.55040506878361239</v>
+        <v>2.8678666469829799E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26">
-        <v>0.48235961438363761</v>
+      <c r="B26" s="2">
+        <v>2.5025899976969098E-3</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>0.54509184390091647</v>
+        <v>2.8574703590906699E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
-        <v>0.55981186252835535</v>
+      <c r="B27" s="2">
+        <v>2.9110373716215001E-3</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>0.54275927700743387</v>
+        <v>2.82772494361283E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28">
-        <v>0.60315609483037336</v>
+      <c r="B28" s="2">
+        <v>3.1735894533662101E-3</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>0.53764530412315437</v>
+        <v>2.8147810883996402E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29">
-        <v>0.35479658629349581</v>
+      <c r="B29" s="2">
+        <v>1.96716200316763E-3</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29">
-        <v>0.53723936356231428</v>
+        <v>2.7866449158136298E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
-        <v>0.53764530412315437</v>
+      <c r="B30" s="2">
+        <v>2.7866449158136298E-3</v>
       </c>
       <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
       <c r="E30">
-        <v>0.53612109841804578</v>
+        <v>2.7844256577323899E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31">
-        <v>0.54275927700743387</v>
+      <c r="B31" s="2">
+        <v>2.8147810883996402E-3</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>0.52328114956644645</v>
+        <v>2.7783228588749201E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
-        <v>0.46163429671374778</v>
+      <c r="B32" s="2">
+        <v>2.4049504029550499E-3</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>0.51921467369307117</v>
+        <v>2.70936185777819E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33">
-        <v>0.83645322081806717</v>
+      <c r="B33" s="2">
+        <v>5.17096960431674E-3</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E33">
-        <v>0.51868280878459516</v>
+        <v>2.6919184892897001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34">
-        <v>0.83802155464231476</v>
+      <c r="B34" s="2">
+        <v>5.1887086232275297E-3</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>0.51776689911092322</v>
+        <v>2.68794125003765E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35">
-        <v>0.51921467369307117</v>
+      <c r="B35" s="2">
+        <v>2.68794125003765E-3</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>0.51542237336332541</v>
+        <v>2.68515429638819E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B36">
-        <v>0.57972329921451959</v>
+      <c r="B36" s="2">
+        <v>3.0283545505424298E-3</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>0.50517646733827826</v>
+        <v>2.68036289501721E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37">
-        <v>0.47641329415814548</v>
+      <c r="B37" s="2">
+        <v>2.4741085047350298E-3</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0.50005652717916538</v>
+        <v>2.6681435527116399E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
-        <v>1.585189302387862E-62</v>
+      <c r="B38" s="2">
+        <v>1.0566775959073001E-3</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>0.49986544255849108</v>
+        <v>2.6155035670140099E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B39">
-        <v>0.60183816445180105</v>
+      <c r="B39" s="2">
+        <v>3.1652074177433301E-3</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>0.48322420605930128</v>
+        <v>2.5896556073195802E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.55297916121761459</v>
+      <c r="B40" s="2">
+        <v>2.8720128752583E-3</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>0.48319295340297308</v>
+        <v>2.5886967289116799E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>0.54509184390091647</v>
+      <c r="B41" s="2">
+        <v>2.82772494361283E-3</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0.48235961438363761</v>
+        <v>2.5067631118463399E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
-        <v>0.51776689911092322</v>
+      <c r="B42" s="2">
+        <v>2.68036289501721E-3</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>0.4791839972740668</v>
+        <v>2.5066121230242801E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43">
-        <v>0.72925477390736981</v>
+      <c r="B43" s="2">
+        <v>4.1108766244722398E-3</v>
       </c>
       <c r="C43">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>0.47641329415814548</v>
+        <v>2.5025899976969098E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B44">
-        <v>0.56224932447811871</v>
+      <c r="B44" s="2">
+        <v>2.9251089218812398E-3</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>0.47293022736596441</v>
+        <v>2.4873319999726301E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>0.60287553084987744</v>
+      <c r="B45" s="2">
+        <v>3.1718028893417301E-3</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>0.46581883383591838</v>
+        <v>2.4741085047350298E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B46">
-        <v>0.49986544255849108</v>
+      <c r="B46" s="2">
+        <v>2.5886967289116799E-3</v>
       </c>
       <c r="C46">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>0.46485330127994529</v>
+        <v>2.45760188541645E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
-        <v>0.51868280878459516</v>
+      <c r="B47" s="2">
+        <v>2.68515429638819E-3</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E47">
-        <v>0.46163429671374778</v>
+        <v>2.4242993208227598E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0.53612109841804578</v>
+      <c r="B48" s="2">
+        <v>2.7783228588749201E-3</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48">
-        <v>0.45215058957485821</v>
+        <v>2.4198186436599199E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B49">
-        <v>0.6183437690958149</v>
+      <c r="B49" s="2">
+        <v>3.2720848919275099E-3</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>0.43211263224168123</v>
+        <v>2.4049504029550499E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B50">
-        <v>0.58197614267675568</v>
+      <c r="B50" s="2">
+        <v>3.0419740173744801E-3</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E50">
-        <v>0.39914252691255442</v>
+        <v>2.36176458573726E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B51">
-        <v>0.58711558918641604</v>
+      <c r="B51" s="2">
+        <v>3.0733139063727501E-3</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>0.39864681541563007</v>
+        <v>2.2734712312292198E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B52">
-        <v>0.52328114956644645</v>
+      <c r="B52" s="2">
+        <v>2.70936185777819E-3</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>0.39025085017525901</v>
+        <v>2.1364704712168998E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
-      <c r="B53">
-        <v>0.55040506878361239</v>
+      <c r="B53" s="2">
+        <v>2.8574703590906699E-3</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>0.37598357710820052</v>
+        <v>2.1344857037171902E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54">
-        <v>0.37598357710820052</v>
+      <c r="B54" s="2">
+        <v>2.04601007734441E-3</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.36159421769402572</v>
+        <v>2.1011953390334698E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>0.48319295340297308</v>
+      <c r="B55" s="2">
+        <v>2.5066121230242801E-3</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>0.35479658629349581</v>
+        <v>2.04601007734441E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
-        <v>0.36159421769402572</v>
+      <c r="B56" s="2">
+        <v>1.9920651949275098E-3</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56">
-        <v>0.33368466376173889</v>
+        <v>1.9920651949275098E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>0.46581883383591838</v>
+      <c r="B57" s="2">
+        <v>2.4242993208227598E-3</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>0.32731969311301079</v>
+        <v>1.96716200316763E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
-      <c r="B58">
-        <v>0.53723936356231428</v>
+      <c r="B58" s="2">
+        <v>2.7844256577323899E-3</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E58">
-        <v>0.29962217255384221</v>
+        <v>1.8921124660822501E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" s="2">
+        <v>2.6919184892897001E-3</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>0.29535922643719192</v>
+        <v>1.87014795814102E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.46485330127994529</v>
+      <c r="B60" s="2">
+        <v>2.4198186436599199E-3</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E60">
-        <v>0.2560935971296997</v>
+        <v>1.77798108948373E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0.45215058957485821</v>
+      <c r="B61" s="2">
+        <v>2.36176458573726E-3</v>
       </c>
       <c r="C61">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E61">
-        <v>1.585189302387862E-62</v>
+        <v>1.7642732731989301E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>0.33368466376173889</v>
+      <c r="B62" s="2">
+        <v>1.8921124660822501E-3</v>
       </c>
       <c r="C62">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1.64366760692653E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" s="2">
+        <v>3.8593913019357301E-3</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1.0566775959073001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2694870-2A8A-4CB2-8488-E160C16BEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7DEA1-6767-40A3-9875-7A943E01A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_driven_mi" sheetId="1" r:id="rId1"/>
+    <sheet name="label_driven_mi_10_15" sheetId="6" r:id="rId2"/>
+    <sheet name="label_driven_pcc" sheetId="2" r:id="rId3"/>
+    <sheet name="label_driven_anova" sheetId="3" r:id="rId4"/>
+    <sheet name="label_driven_sc" sheetId="4" r:id="rId5"/>
+    <sheet name="label_driven_cc" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="65">
   <si>
     <t>labels</t>
   </si>
@@ -284,13 +289,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,4 +1665,2655 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD14C98-9985-4DA2-8864-68251F4717D3}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.0482911313164003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.0056167067851296E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.1215386547167501E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.4278537569248299E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.5296216795582597E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.9700521262226598E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.0000969880152502E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.0991456061000202E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.9969166133597398E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.13678091402663E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.4317332302824899E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.7058030949567301E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.9881886631094399E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.6022826005259098E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0237974433310502E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.15833989008279E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.0994332263147898E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.7865532809068301E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.60827347917189E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.7130244356960102E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9183140162536401E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.4822144613553202E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.0105487795309299E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8.4847302444258695E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.94221582745093E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.7788904270833899E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.7875233372866701E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0937085881728699E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.15776404442742E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.4896135283592998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.8251705435508099E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.5420982597240101E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.4833325719669804E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3.2067277986568498E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3.5165047803526598E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.1544964753122502E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.20129768719139E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.8898156948499601E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3.84863031238339E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3.30120735712437E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3.0655645127296801E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.3598316597265301E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3.3441107978528901E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3.5587223335631401E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3.2781118718196501E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.26213414659255E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.0484816815783702E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4.0564934360157899E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3.8107587551319401E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.9887582847589302E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3.2391513279442399E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3.2355824462732001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.3521075676954601E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3.0433835591616499E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.4555731115519599E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.82928885069987E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3.44067142163948E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3.39742054265513E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3.10036551121873E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3.0828139789414902E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.2926965598421001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4.2938583939327998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF59DD6C-2988-4773-A1F0-7B6BEC2F3915}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.3501283843491199E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.21960670380223E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.3531212296487101E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.8601959649661701E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.6252137260068103E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.2882073765903202E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-5.4108026183629396E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1.27669970758324E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-9.8016227813715203E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-8.4445762019949903E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-2.5816394165198398E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8.0994089247919004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.5503456657701999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1.4149711369874899E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-7.2078208424697398E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-2.9560211736046402E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-1.7022262158298E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-8.1406528925559004E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-5.1970366271083602E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.7445314726429705E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.1794577649423602E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.04159420087988E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.5603053924375501E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-6.80732297967994E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-4.0853784783534999E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4.9524420545020095E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-2.6928719213709801E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-2.52646109912132E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-6.8038789715879904E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.42527501461773E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-4.5209067257833504E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>-4.5552065414039799E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-6.0589155970565704E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5.04721432752742E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.66320793962353E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>8.7360005414100297E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.3307801362279005E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>9.7125743917600199E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.7337886011681099E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.5996449025814901E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.3589463510298799E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-1.4784209678181699E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-1.8853172268481499E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2.6409837797092298E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.2318088754481799E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5.2271950167342995E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6.7195453219345705E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4.0506001914590302E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-1.5350901839079899E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>-1.8883738287525699E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.03216573977861E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.09898945299338E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-8.4684329462962897E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.1105284232590001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.08728081427845E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>-1.19460336491082E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-2.1813802573022499E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4">
+        <v>-2.2859140913199399E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>-2.2325387995302401E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.08999764838043E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4.13811632457083E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.7978580987160401E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D2912-C528-43E9-B362-BB9AF1EF689F}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>629.45784030349705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>722.18709699489102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>728.48924270580596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1240.7078154268399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1234.7471945925399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>369.114780594693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>808.33614379857897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1763.13102934873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2785.04012964718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2679.6907938905501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2596.3896970311598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2162.8106578299298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1164.6322087211299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>786.72472222933698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>784.017659182584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1428.4711731269599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2541.1880709796901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>3972.44127159651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>4397.9106245512203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>4275.5524333783997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2946.6910084793499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1604.59686200951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>921.74544060840299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>742.09280073959599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1572.75123106039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>3009.9767577348298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>5893.9482540085801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>82313.751997383399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>5944.5689435009999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>3134.0114403463199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1852.3476055209201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1005.5250808967299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>984.07697394918796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1871.0247252833899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>3256.2158478452102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>4966.7770116071897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>130703.906330709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>5058.61272217239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2664.4467257256301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1936.1148117645801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1568.5416320624399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1460.42883797181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>1939.3115138266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2499.5198886808898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5639.4273084197703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>13734.715399099299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3059.6640910995402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>2181.1894263674099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>2025.7666947641001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>1550.15300688569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>1678.8758453236201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>1875.3923135259299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>2002.59523951352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>2501.4267854180398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>2247.8829125002699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2007.95418915449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1743.97361930584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1543.5938688175299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1801.1800277038201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1764.19607046292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1885.56996746749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1375.08963163609</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADB9A03-3608-4DDC-9C12-DE39E2D3D19D}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.2688448225368801E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.7088091022106899E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.6433944991153201E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.25762156818325E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.0738513239088697E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.4656713298547E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-9.7555354009458005E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.2513448922248604E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.9546931262792799E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.8984723323889695E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-1.3760129208321599E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.2457648815799101E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.40656563994124E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.41005098916348E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-6.8919779813528595E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.5751501273597496E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.46868189374473E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-1.91497908432215E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-2.4074082651845499E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-1.0899186604744399E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.8910769634414701E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.7990739687268301E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7.42643855912089E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3.21753693876167E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-2.1995235104774599E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.8745445943872E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4.86070441931038E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-2.5248242922709099E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.0235463418761598E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2.2348609379762401E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.03403084579116E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.5883090464995703E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-1.4113067061040901E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-1.29401227558873E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-9.6890375436000406E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.6866496397601403E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.7890626582092799E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-1.28028091872026E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.9174986174636505E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-1.1721403036017799E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.13557513347975E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-1.20251868607546E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-2.4837661109604701E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-2.6311322373460602E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1.61362062071454E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5.2778178466395703E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5.2948833850393999E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.4135646877039801E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>-8.8011167812399396E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>-4.5283804818617202E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-5.7414260101782502E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3">
+        <v>-5.6367307221818499E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3">
+        <v>-6.8564089119034597E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4.7519382009747301E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.84044420982276E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.41933825980808E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.1821648977175E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3">
+        <v>-1.5199974418853199E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>-7.44826435168328E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <v>7.4130247595551006E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.0727273604354999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>-5.4013936002054595E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281969-0800-46E7-913C-D25E6EC867ED}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.2169165651974199E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.25731472908971E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.15999350437422E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.36890124414587E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.2199343613318E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.9710514439683307E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.2268584839642299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.31723773329039E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.4144265868000799E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.6228516819777199E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.4886547191784E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.3400158383960701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.3583196443447E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.26831685359492E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.4000888551512901E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.35729736393301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.5111099239235501E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.54348972365021E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.72489214254056E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.6452794588892199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.42823013467871E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.3601789236996099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.3461329879208299E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.53622189815825E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.4572237857218799E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.62971388770289E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.6620462871069899E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.41067950124385E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.7183910609680698E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.62817367265203E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.49630634168142E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.55212906364192E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.8203596954366099E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.6670447284088698E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.7164536103775E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.6605314920626099E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.11613844588992E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.6380544458165999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1.6750078635588899E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.6831487898192901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.6018949019095199E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.62646623273889E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.5796697657608199E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.6839858052553201E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.7085641587873901E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.6894193781678099E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.69779340152298E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.75853748922946E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.7640683933558499E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.6557003761246799E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.5848861892079701E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.5640811112565801E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.5906272445902599E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.8124671291441401E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.6436394617567299E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.6173700486278399E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.7401193898343398E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.6764227213506799E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.59160956248353E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.6665114130291901E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.66330169681582E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.87270108784959E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7DEA1-6767-40A3-9875-7A943E01A6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D16D1-8739-4CBD-878B-52FC6C0D8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_driven_mi" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3792,7 +3792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281969-0800-46E7-913C-D25E6EC867ED}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\channel_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D16D1-8739-4CBD-878B-52FC6C0D8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391F3FA-B545-4901-A0BC-957C57235DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="label_driven_mi" sheetId="1" r:id="rId1"/>
-    <sheet name="label_driven_mi_10_15" sheetId="6" r:id="rId2"/>
-    <sheet name="label_driven_pcc" sheetId="2" r:id="rId3"/>
+    <sheet name="label_driven_mi_10_15" sheetId="6" r:id="rId1"/>
+    <sheet name="label_driven_anova_10_15" sheetId="7" r:id="rId2"/>
+    <sheet name="label_driven_mi" sheetId="1" r:id="rId3"/>
     <sheet name="label_driven_anova" sheetId="3" r:id="rId4"/>
-    <sheet name="label_driven_sc" sheetId="4" r:id="rId5"/>
-    <sheet name="label_driven_cc" sheetId="5" r:id="rId6"/>
+    <sheet name="label_driven_pcc" sheetId="2" r:id="rId5"/>
+    <sheet name="label_driven_sc" sheetId="4" r:id="rId6"/>
+    <sheet name="label_driven_cc" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="65">
   <si>
     <t>labels</t>
   </si>
@@ -305,7 +306,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,1092 +583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3.4954216373581201E-3</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>7.4745951208934399E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.5918765252834798E-3</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>5.1887086232275297E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.8678666469829799E-3</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>5.17096960431674E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.9281322037327702E-3</v>
-      </c>
-      <c r="C5">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>4.1108766244722398E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3.5844110769237998E-3</v>
-      </c>
-      <c r="C6">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>3.8593913019357301E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.87014795814102E-3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3.5918765252834798E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.6681435527116399E-3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>3.5844110769237998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.45760188541645E-3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3.4954216373581201E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.5067631118463399E-3</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>3.3713225056345498E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2.6155035670140099E-3</v>
-      </c>
-      <c r="C11">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>3.2720848919275099E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.9689199235157101E-3</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>3.1735894533662101E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.2734712312292198E-3</v>
-      </c>
-      <c r="C13">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>3.1718028893417301E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.64366760692653E-3</v>
-      </c>
-      <c r="C14">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>3.1652074177433301E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.1011953390334698E-3</v>
-      </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>3.12925771269983E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1.7642732731989301E-3</v>
-      </c>
-      <c r="C16">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>3.0733139063727501E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.1344857037171902E-3</v>
-      </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17">
-        <v>3.0419740173744801E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.5896556073195802E-3</v>
-      </c>
-      <c r="C18">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>3.0283545505424298E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.92137770909977E-3</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>2.9689199235157101E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.3713225056345498E-3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>2.9281322037327702E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.12925771269983E-3</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>2.9251089218812398E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.77798108948373E-3</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>2.92137770909977E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2.1364704712168998E-3</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23">
-        <v>2.9110373716215001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.4873319999726301E-3</v>
-      </c>
-      <c r="C24">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>2.8720128752583E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>7.4745951208934399E-3</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>2.8678666469829799E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2.5025899976969098E-3</v>
-      </c>
-      <c r="C26">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>2.8574703590906699E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.9110373716215001E-3</v>
-      </c>
-      <c r="C27">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <v>2.82772494361283E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3.1735894533662101E-3</v>
-      </c>
-      <c r="C28">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28">
-        <v>2.8147810883996402E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.96716200316763E-3</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29">
-        <v>2.7866449158136298E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2.7866449158136298E-3</v>
-      </c>
-      <c r="C30">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <v>2.7844256577323899E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2.8147810883996402E-3</v>
-      </c>
-      <c r="C31">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31">
-        <v>2.7783228588749201E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2.4049504029550499E-3</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32">
-        <v>2.70936185777819E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5.17096960431674E-3</v>
-      </c>
-      <c r="C33">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33">
-        <v>2.6919184892897001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5.1887086232275297E-3</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>2.68794125003765E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2.68794125003765E-3</v>
-      </c>
-      <c r="C35">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35">
-        <v>2.68515429638819E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3.0283545505424298E-3</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36">
-        <v>2.68036289501721E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2.4741085047350298E-3</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>2.6681435527116399E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1.0566775959073001E-3</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>2.6155035670140099E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3.1652074177433301E-3</v>
-      </c>
-      <c r="C39">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39">
-        <v>2.5896556073195802E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2.8720128752583E-3</v>
-      </c>
-      <c r="C40">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40">
-        <v>2.5886967289116799E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2.82772494361283E-3</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41">
-        <v>2.5067631118463399E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2.68036289501721E-3</v>
-      </c>
-      <c r="C42">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42">
-        <v>2.5066121230242801E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4.1108766244722398E-3</v>
-      </c>
-      <c r="C43">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43">
-        <v>2.5025899976969098E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2">
-        <v>2.9251089218812398E-3</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44">
-        <v>2.4873319999726301E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="2">
-        <v>3.1718028893417301E-3</v>
-      </c>
-      <c r="C45">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45">
-        <v>2.4741085047350298E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2.5886967289116799E-3</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46">
-        <v>2.45760188541645E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2.68515429638819E-3</v>
-      </c>
-      <c r="C47">
-        <v>55</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>2.4242993208227598E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2.7783228588749201E-3</v>
-      </c>
-      <c r="C48">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48">
-        <v>2.4198186436599199E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3.2720848919275099E-3</v>
-      </c>
-      <c r="C49">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>2.4049504029550499E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="2">
-        <v>3.0419740173744801E-3</v>
-      </c>
-      <c r="C50">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50">
-        <v>2.36176458573726E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3.0733139063727501E-3</v>
-      </c>
-      <c r="C51">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51">
-        <v>2.2734712312292198E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2.70936185777819E-3</v>
-      </c>
-      <c r="C52">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52">
-        <v>2.1364704712168998E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="2">
-        <v>2.8574703590906699E-3</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>2.1344857037171902E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="2">
-        <v>2.04601007734441E-3</v>
-      </c>
-      <c r="C54">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54">
-        <v>2.1011953390334698E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2.5066121230242801E-3</v>
-      </c>
-      <c r="C55">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55">
-        <v>2.04601007734441E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.9920651949275098E-3</v>
-      </c>
-      <c r="C56">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56">
-        <v>1.9920651949275098E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2.4242993208227598E-3</v>
-      </c>
-      <c r="C57">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57">
-        <v>1.96716200316763E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2.7844256577323899E-3</v>
-      </c>
-      <c r="C58">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58">
-        <v>1.8921124660822501E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2.6919184892897001E-3</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59">
-        <v>1.87014795814102E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2.4198186436599199E-3</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60">
-        <v>1.77798108948373E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2.36176458573726E-3</v>
-      </c>
-      <c r="C61">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61">
-        <v>1.7642732731989301E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1.8921124660822501E-3</v>
-      </c>
-      <c r="C62">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62">
-        <v>1.64366760692653E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2">
-        <v>3.8593913019357301E-3</v>
-      </c>
-      <c r="C63">
-        <v>36</v>
-      </c>
-      <c r="D63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63">
-        <v>1.0566775959073001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD14C98-9985-4DA2-8864-68251F4717D3}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -2198,7 +1113,2151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751AB800-BB0B-4EB4-9C64-E21DDB5BE29C}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>651.97749163023695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>716.67916584598504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>741.60048330450502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1212.28886117504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1201.8812258002399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>369.35892689650899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>847.924269115833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1832.67758019589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2679.2096233854199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2682.1526499882102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2623.7536995580699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2171.7643842736102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1141.96914748105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>731.41489084234502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>725.72736763491605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1464.1847175824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2417.1151406968802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>3209.5890163386298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>4421.2480968493001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>4074.6948842717102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2931.0627903447698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1509.0149072814399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>833.85804799149798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>674.69937069053299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1533.248640327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2793.0136202355602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>4741.5751935938797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>77839.885488363201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>6034.6448199865899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>2918.6845548045299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1802.6362602328099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>987.13759761022095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>874.430928021265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1849.0659642636199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>2949.9790528777198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>4113.6278605111802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>127552.266009299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>4030.9078862445799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2385.4276189494799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1793.27847575955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1521.25117435782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1241.65365446284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>1934.7107499523299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2290.5572504895099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>2429.8122905576902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>13117.234648224799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2742.82859283178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>2127.45012140672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>1882.06460814003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>1378.2855823514601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>1593.8140886086901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>1866.4781841219799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>1928.7402460999299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>2163.4039871599498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>2216.9530063534198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2120.8246580912701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1672.4615580479101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1395.5646867994401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1726.0529129520301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1612.19725393767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1822.6263208031501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1258.27800790525</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.4954216373581201E-3</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>7.4745951208934399E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.5918765252834798E-3</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5.1887086232275297E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.8678666469829799E-3</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>5.17096960431674E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.9281322037327702E-3</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4.1108766244722398E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.5844110769237998E-3</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>3.8593913019357301E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.87014795814102E-3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3.5918765252834798E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.6681435527116399E-3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>3.5844110769237998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.45760188541645E-3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3.4954216373581201E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.5067631118463399E-3</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>3.3713225056345498E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.6155035670140099E-3</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>3.2720848919275099E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.9689199235157101E-3</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>3.1735894533662101E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.2734712312292198E-3</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3.1718028893417301E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.64366760692653E-3</v>
+      </c>
+      <c r="C14">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3.1652074177433301E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.1011953390334698E-3</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>3.12925771269983E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.7642732731989301E-3</v>
+      </c>
+      <c r="C16">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3.0733139063727501E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.1344857037171902E-3</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>3.0419740173744801E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.5896556073195802E-3</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>3.0283545505424298E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.92137770909977E-3</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2.9689199235157101E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.3713225056345498E-3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>2.9281322037327702E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.12925771269983E-3</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>2.9251089218812398E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.77798108948373E-3</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2.92137770909977E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.1364704712168998E-3</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>2.9110373716215001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.4873319999726301E-3</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>2.8720128752583E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7.4745951208934399E-3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>2.8678666469829799E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.5025899976969098E-3</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2.8574703590906699E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.9110373716215001E-3</v>
+      </c>
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>2.82772494361283E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.1735894533662101E-3</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>2.8147810883996402E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.96716200316763E-3</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>2.7866449158136298E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2.7866449158136298E-3</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>2.7844256577323899E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.8147810883996402E-3</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>2.7783228588749201E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.4049504029550499E-3</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>2.70936185777819E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5.17096960431674E-3</v>
+      </c>
+      <c r="C33">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>2.6919184892897001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.1887086232275297E-3</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>2.68794125003765E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.68794125003765E-3</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>2.68515429638819E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.0283545505424298E-3</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <v>2.68036289501721E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.4741085047350298E-3</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>2.6681435527116399E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0566775959073001E-3</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>2.6155035670140099E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3.1652074177433301E-3</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>2.5896556073195802E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.8720128752583E-3</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>2.5886967289116799E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.82772494361283E-3</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>2.5067631118463399E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.68036289501721E-3</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42">
+        <v>2.5066121230242801E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4.1108766244722398E-3</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>2.5025899976969098E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.9251089218812398E-3</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>2.4873319999726301E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3.1718028893417301E-3</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>2.4741085047350298E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.5886967289116799E-3</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>2.45760188541645E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.68515429638819E-3</v>
+      </c>
+      <c r="C47">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>2.4242993208227598E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.7783228588749201E-3</v>
+      </c>
+      <c r="C48">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>2.4198186436599199E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3.2720848919275099E-3</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>2.4049504029550499E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.0419740173744801E-3</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>2.36176458573726E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3.0733139063727501E-3</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>2.2734712312292198E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2.70936185777819E-3</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>2.1364704712168998E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2.8574703590906699E-3</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>2.1344857037171902E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2.04601007734441E-3</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>2.1011953390334698E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2.5066121230242801E-3</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55">
+        <v>2.04601007734441E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.9920651949275098E-3</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>1.9920651949275098E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2.4242993208227598E-3</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>1.96716200316763E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2.7844256577323899E-3</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58">
+        <v>1.8921124660822501E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2.6919184892897001E-3</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>1.87014795814102E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2.4198186436599199E-3</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>1.77798108948373E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.36176458573726E-3</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>1.7642732731989301E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.8921124660822501E-3</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>1.64366760692653E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3.8593913019357301E-3</v>
+      </c>
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63">
+        <v>1.0566775959073001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D2912-C528-43E9-B362-BB9AF1EF689F}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>629.45784030349705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>722.18709699489102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>728.48924270580596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1240.7078154268399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1234.7471945925399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>369.114780594693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>808.33614379857897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1763.13102934873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2785.04012964718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2679.6907938905501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2596.3896970311598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2162.8106578299298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1164.6322087211299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>786.72472222933698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>784.017659182584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1428.4711731269599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2541.1880709796901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>3972.44127159651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>4397.9106245512203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>4275.5524333783997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2946.6910084793499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1604.59686200951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>921.74544060840299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>742.09280073959599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1572.75123106039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>3009.9767577348298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>5893.9482540085801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>82313.751997383399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>5944.5689435009999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>3134.0114403463199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1852.3476055209201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1005.5250808967299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>984.07697394918796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1871.0247252833899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>3256.2158478452102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>4966.7770116071897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>130703.906330709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>5058.61272217239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2664.4467257256301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1936.1148117645801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1568.5416320624399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1460.42883797181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>1939.3115138266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2499.5198886808898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5639.4273084197703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>13734.715399099299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3059.6640910995402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>2181.1894263674099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>2025.7666947641001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>1550.15300688569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>1678.8758453236201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>1875.3923135259299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>2002.59523951352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>2501.4267854180398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>2247.8829125002699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>2007.95418915449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1743.97361930584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1543.5938688175299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1801.1800277038201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1764.19607046292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1885.56996746749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1375.08963163609</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF59DD6C-2988-4773-A1F0-7B6BEC2F3915}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -2728,537 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D2912-C528-43E9-B362-BB9AF1EF689F}">
-  <dimension ref="A1:E63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>629.45784030349705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>722.18709699489102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>728.48924270580596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1240.7078154268399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1234.7471945925399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>369.114780594693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>808.33614379857897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>1763.13102934873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>2785.04012964718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>2679.6907938905501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>2596.3896970311598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>2162.8106578299298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>1164.6322087211299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>786.72472222933698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>784.017659182584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>1428.4711731269599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>2541.1880709796901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>3972.44127159651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>4397.9106245512203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>4275.5524333783997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>2946.6910084793499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>1604.59686200951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>921.74544060840299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>742.09280073959599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26">
-        <v>1572.75123106039</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>3009.9767577348298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>5893.9482540085801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29">
-        <v>82313.751997383399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>5944.5689435009999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
-        <v>3134.0114403463199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32">
-        <v>1852.3476055209201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>1005.5250808967299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>984.07697394918796</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>1871.0247252833899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>3256.2158478452102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37">
-        <v>4966.7770116071897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
-        <v>130703.906330709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>5058.61272217239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2664.4467257256301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>1936.1148117645801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42">
-        <v>1568.5416320624399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>1460.42883797181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44">
-        <v>1939.3115138266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>2499.5198886808898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <v>5639.4273084197703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>13734.715399099299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>3059.6640910995402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>2181.1894263674099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>2025.7666947641001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51">
-        <v>1550.15300688569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52">
-        <v>1678.8758453236201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53">
-        <v>1875.3923135259299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>2002.59523951352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>2501.4267854180398</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>2247.8829125002699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>2007.95418915449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58">
-        <v>1743.97361930584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>1543.5938688175299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1801.1800277038201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>1764.19607046292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>1885.56996746749</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>1375.08963163609</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADB9A03-3608-4DDC-9C12-DE39E2D3D19D}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -3788,11 +4317,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281969-0800-46E7-913C-D25E6EC867ED}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391F3FA-B545-4901-A0BC-957C57235DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9EABE-938A-4059-A87A-1C3B5BBC7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_driven_mi_10_15" sheetId="6" r:id="rId1"/>
     <sheet name="label_driven_anova_10_15" sheetId="7" r:id="rId2"/>
-    <sheet name="label_driven_mi" sheetId="1" r:id="rId3"/>
-    <sheet name="label_driven_anova" sheetId="3" r:id="rId4"/>
-    <sheet name="label_driven_pcc" sheetId="2" r:id="rId5"/>
-    <sheet name="label_driven_sc" sheetId="4" r:id="rId6"/>
-    <sheet name="label_driven_cc" sheetId="5" r:id="rId7"/>
+    <sheet name="label_pcc_10_15" sheetId="8" r:id="rId3"/>
+    <sheet name="label_sc_10_15" sheetId="9" r:id="rId4"/>
+    <sheet name="label_cc_10_15" sheetId="10" r:id="rId5"/>
+    <sheet name="label_driven_mi" sheetId="1" r:id="rId6"/>
+    <sheet name="label_driven_anova" sheetId="3" r:id="rId7"/>
+    <sheet name="label_driven_pcc" sheetId="2" r:id="rId8"/>
+    <sheet name="label_driven_sc" sheetId="4" r:id="rId9"/>
+    <sheet name="label_driven_cc" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="65">
   <si>
     <t>labels</t>
   </si>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -304,6 +307,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,6 +590,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD14C98-9985-4DA2-8864-68251F4717D3}">
   <dimension ref="A1:E63"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.0482911313164003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.0056167067851296E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.1215386547167501E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.4278537569248299E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.5296216795582597E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.9700521262226598E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.0000969880152502E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.0991456061000202E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.9969166133597398E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.13678091402663E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.4317332302824899E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.7058030949567301E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.9881886631094399E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.6022826005259098E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0237974433310502E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.15833989008279E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.0994332263147898E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.7865532809068301E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.60827347917189E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.7130244356960102E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9183140162536401E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.4822144613553202E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.0105487795309299E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8.4847302444258695E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.94221582745093E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.7788904270833899E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.7875233372866701E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0937085881728699E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.15776404442742E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.4896135283592998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.8251705435508099E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.5420982597240101E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.4833325719669804E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3.2067277986568498E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3.5165047803526598E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.1544964753122502E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.20129768719139E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.8898156948499601E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3.84863031238339E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3.30120735712437E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3.0655645127296801E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.3598316597265301E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3.3441107978528901E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3.5587223335631401E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3.2781118718196501E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.26213414659255E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3.0484816815783702E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4.0564934360157899E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3.8107587551319401E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3.9887582847589302E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3.2391513279442399E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3.2355824462732001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.3521075676954601E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3.0433835591616499E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.4555731115519599E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.82928885069987E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3.44067142163948E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3.39742054265513E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3.10036551121873E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3.0828139789414902E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.2926965598421001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4.2938583939327998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281969-0800-46E7-913C-D25E6EC867ED}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>4.0482911313164003E-3</v>
+        <v>1.2169165651974199E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -623,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>4.0056167067851296E-3</v>
+        <v>1.25731472908971E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>3.1215386547167501E-3</v>
+        <v>1.15999350437422E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>3.4278537569248299E-3</v>
+        <v>1.36890124414587E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>4.5296216795582597E-3</v>
+        <v>1.2199343613318E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>1.9700521262226598E-3</v>
+        <v>9.9710514439683307E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>3.0000969880152502E-3</v>
+        <v>1.2268584839642299E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>3.0991456061000202E-3</v>
+        <v>1.31723773329039E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -679,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>2.9969166133597398E-3</v>
+        <v>1.4144265868000799E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -687,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <v>3.13678091402663E-3</v>
+        <v>1.6228516819777199E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -695,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>3.4317332302824899E-3</v>
+        <v>1.4886547191784E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="3">
-        <v>2.7058030949567301E-3</v>
+        <v>1.3400158383960701E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="3">
-        <v>1.9881886631094399E-3</v>
+        <v>1.3583196443447E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="3">
-        <v>2.6022826005259098E-3</v>
+        <v>1.26831685359492E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="3">
-        <v>2.0237974433310502E-3</v>
+        <v>1.4000888551512901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>2.15833989008279E-3</v>
+        <v>1.35729736393301E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>3.0994332263147898E-3</v>
+        <v>1.5111099239235501E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="3">
-        <v>3.7865532809068301E-3</v>
+        <v>1.54348972365021E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>3.60827347917189E-3</v>
+        <v>1.72489214254056E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>3.7130244356960102E-3</v>
+        <v>1.6452794588892199E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +1310,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="3">
-        <v>1.9183140162536401E-3</v>
+        <v>1.42823013467871E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="3">
-        <v>2.4822144613553202E-3</v>
+        <v>1.3601789236996099E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +1326,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3">
-        <v>3.0105487795309299E-3</v>
+        <v>1.3461329879208299E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3">
-        <v>8.4847302444258695E-3</v>
+        <v>1.53622189815825E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,7 +1342,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="3">
-        <v>2.94221582745093E-3</v>
+        <v>1.4572237857218799E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -815,7 +1350,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="3">
-        <v>3.7788904270833899E-3</v>
+        <v>1.62971388770289E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>3.7875233372866701E-3</v>
+        <v>1.6620462871069899E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -831,7 +1366,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="3">
-        <v>2.0937085881728699E-3</v>
+        <v>1.41067950124385E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="3">
-        <v>3.15776404442742E-3</v>
+        <v>1.7183910609680698E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -847,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="3">
-        <v>3.4896135283592998E-3</v>
+        <v>1.62817367265203E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -855,7 +1390,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="3">
-        <v>2.8251705435508099E-3</v>
+        <v>1.49630634168142E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -863,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="3">
-        <v>4.5420982597240101E-3</v>
+        <v>1.55212906364192E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -871,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3">
-        <v>6.4833325719669804E-3</v>
+        <v>1.8203596954366099E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -879,7 +1414,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="3">
-        <v>3.2067277986568498E-3</v>
+        <v>1.6670447284088698E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -887,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="3">
-        <v>3.5165047803526598E-3</v>
+        <v>1.7164536103775E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,7 +1430,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3">
-        <v>3.1544964753122502E-3</v>
+        <v>1.6605314920626099E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +1438,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="3">
-        <v>1.20129768719139E-3</v>
+        <v>1.11613844588992E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -911,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="3">
-        <v>3.8898156948499601E-3</v>
+        <v>1.6380544458165999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +1454,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>3.84863031238339E-3</v>
+        <v>1.6750078635588899E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +1462,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="3">
-        <v>3.30120735712437E-3</v>
+        <v>1.6831487898192901E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +1470,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="3">
-        <v>3.0655645127296801E-3</v>
+        <v>1.6018949019095199E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="3">
-        <v>5.3598316597265301E-3</v>
+        <v>1.62646623273889E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="3">
-        <v>3.3441107978528901E-3</v>
+        <v>1.5796697657608199E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -959,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="3">
-        <v>3.5587223335631401E-3</v>
+        <v>1.6839858052553201E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,7 +1502,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="3">
-        <v>3.2781118718196501E-3</v>
+        <v>1.7085641587873901E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -975,7 +1510,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>3.26213414659255E-3</v>
+        <v>1.6894193781678099E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -983,7 +1518,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>3.0484816815783702E-3</v>
+        <v>1.69779340152298E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -991,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="B49" s="3">
-        <v>4.0564934360157899E-3</v>
+        <v>1.75853748922946E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -999,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="3">
-        <v>3.8107587551319401E-3</v>
+        <v>1.7640683933558499E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1007,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="3">
-        <v>3.9887582847589302E-3</v>
+        <v>1.6557003761246799E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1015,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="3">
-        <v>3.2391513279442399E-3</v>
+        <v>1.5848861892079701E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1023,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="3">
-        <v>3.2355824462732001E-3</v>
+        <v>1.5640811112565801E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1031,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="3">
-        <v>2.3521075676954601E-3</v>
+        <v>1.5906272445902599E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1039,7 +1574,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="3">
-        <v>3.0433835591616499E-3</v>
+        <v>1.8124671291441401E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,7 +1582,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="3">
-        <v>2.4555731115519599E-3</v>
+        <v>1.6436394617567299E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1590,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>2.82928885069987E-3</v>
+        <v>1.6173700486278399E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1598,7 @@
         <v>46</v>
       </c>
       <c r="B58" s="3">
-        <v>3.44067142163948E-3</v>
+        <v>1.7401193898343398E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>3.39742054265513E-3</v>
+        <v>1.6764227213506799E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1614,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>3.10036551121873E-3</v>
+        <v>1.59160956248353E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1622,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>3.0828139789414902E-3</v>
+        <v>1.6665114130291901E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1630,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>2.2926965598421001E-3</v>
+        <v>1.66330169681582E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,13 +1638,12 @@
         <v>64</v>
       </c>
       <c r="B63" s="3">
-        <v>4.2938583939327998E-3</v>
+        <v>1.87270108784959E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1642,6 +2176,1591 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6DC9E-86A5-4260-8853-D7C7106D2FBD}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3.8187399926427101E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5.3627427960658398E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8.1084053474601197E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.7573132263361393E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2.7903888064406002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.5885250554614099E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-6.1540017707370802E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-2.6658664735894902E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>-3.5551918758460897E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>-1.9374506654038599E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-1.2438327634530999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1.0562260488831601E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1.8643752866742799E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>-2.3888353489105699E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>-8.4891354553518904E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>-2.05903815893973E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>-5.4154735503213495E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>-4.4192354210761497E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>-7.9028427732071103E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>8.0208622785630504E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>6.3547880629571702E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8.6980002091511599E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-7.2635428673910495E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>-5.2489628988754405E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>-6.4232166003759799E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1.96549249177679E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>-2.61351200080615E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>-7.0426570898489502E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2.23827481930832E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>4.88172280798276E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.97140930828163E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>-2.9215084368723501E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>-6.8154647623738405E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-3.3497060582411701E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>-1.9221697430801501E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>3.9728914620751999E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.7836534566132806E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>1.02417655720944E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3.6081151163773597E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1.6444711439249401E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="5">
+        <v>-9.4339272847152606E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>-2.9978706322799498E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5">
+        <v>-3.8197634005836099E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="5">
+        <v>-6.4459888010470794E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>1.18718443561458E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="5">
+        <v>-5.2299206851281399E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6.7684220424095497E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>3.4183503164325E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>1.4119609462924E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>-5.1656068760647404E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5">
+        <v>-1.47703805274609E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>-2.2247213236226699E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>-3.26556087778661E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1.2967041304743699E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="5">
+        <v>-7.8492014882407196E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5">
+        <v>-1.9357033231430999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>-3.6589406838397401E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="5">
+        <v>-3.8045097273155499E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5">
+        <v>-3.9737659958697801E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2.737960439191E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>3.3453454428492501E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>2.4738912121318E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3668214-6C3A-42BB-B462-71920FA31D04}">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>7.6109093758854598E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6.9839243927289404E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5.7531389136976597E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3.6637808888239998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2.5654991749659902E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2.0682420827985498E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.46053855051236E-5</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>6.8536508846919503E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>9.8395957304208206E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.2194691555080399E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-2.17460581506153E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2.1352419647005798E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>3.1544907067928901E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>1.96488585854699E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>-2.2121339172862599E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>3.6711847145281498E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1.4738267167812901E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>-8.1656227825763596E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>-2.2425253493448798E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>-2.1206827035451601E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>3.8806834118127599E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>3.8193721760569101E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>9.19370700406725E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1.2334194411897999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>-1.5677332609717301E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1.3702379053677399E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>7.3690483323891095E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>-2.85255697227573E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>1.4286890623016E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>3.1765911495895E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1.53860459976984E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>3.4508339325597598E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>-2.1581994277580698E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>-1.7095267768467801E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>-1.0409966970568499E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>-1.69833411154037E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>2.1107636738931898E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>-1.53653629718411E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-3.1132150596886201E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>-2.36722278995016E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1.2724324658304801E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>-2.94278455065922E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>-2.6110766948642099E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>-1.7427789613398499E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>-2.05841680656006E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>-1.1377679167571199E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>-8.9971190210028605E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>-3.16423683293927E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>-2.0061323819124698E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>-1.8039904298521401E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>-1.8850461463461401E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>-2.0769770895750599E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>-1.8459894584608499E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>-1.2976372676747399E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>9.37253423380953E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1.3606499106366399E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>5.5030884764606098E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>-1.6226952366265499E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-1.0711836121577801E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-2.07477352329053E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>5.1177032670770401E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>-1.4129158519361801E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161221AD-EA26-4D1B-91E6-981816B817A5}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.2549852542215899E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.32071726219497E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.19241790855029E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1.4603475261903901E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.27529021653533E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.0336625949361199E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1.3014131837429299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.42307846117701E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.4928780859684999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.62291188853112E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.55199797018823E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1.40400083338221E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1.3484003897457301E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>1.31213245352516E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1.49309410666153E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1.4061064160793099E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1.60326644112922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1.67045993412753E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1.7908024219088901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1.8080420634860001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1.4755893955467701E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1.4155086475561201E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>1.39939439387192E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1.6770119194871699E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1.53389975513206E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1.69304697848611E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1.7487164857264099E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>1.4086143072651399E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>1.7198291407584301E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>1.7371524501748101E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1.5489440316034501E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1.65754074267748E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1.80088870403807E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1.7761231804507401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1.79732117676406E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>1.6875657405409701E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>1.2267128826844199E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>1.7181348858172799E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.7381829530600301E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1.72748092746987E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>1.54724270879656E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1.7126518050247098E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>1.5908120519158599E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>1.6938274424602499E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>1.7849665147253301E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>1.74763831150299E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1.7869171376632902E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>1.74069897057826E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>1.8505787992292199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>1.7202347627239701E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>1.6536784600948699E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>1.6140254519200099E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>1.6818022345260902E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1.9323263261186201E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>1.7182746055446601E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1.6578524204898699E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1.8142700572114701E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1.75571974901449E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1.6540766485013798E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1.7333431299753101E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1.7089336813965999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1.9654540175332299E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -2727,11 +4846,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D2912-C528-43E9-B362-BB9AF1EF689F}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3257,7 +5376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF59DD6C-2988-4773-A1F0-7B6BEC2F3915}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -3787,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADB9A03-3608-4DDC-9C12-DE39E2D3D19D}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -4315,534 +6434,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1281969-0800-46E7-913C-D25E6EC867ED}">
-  <dimension ref="A1:E63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.2169165651974199E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.25731472908971E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.15999350437422E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.36890124414587E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.2199343613318E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9.9710514439683307E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.2268584839642299E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.31723773329039E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.4144265868000799E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.6228516819777199E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.4886547191784E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.3400158383960701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.3583196443447E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.26831685359492E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.4000888551512901E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.35729736393301E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.5111099239235501E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.54348972365021E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.72489214254056E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1.6452794588892199E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.42823013467871E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.3601789236996099E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.3461329879208299E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.53622189815825E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.4572237857218799E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.62971388770289E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1.6620462871069899E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1.41067950124385E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1.7183910609680698E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1.62817367265203E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.49630634168142E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1.55212906364192E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1.8203596954366099E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1.6670447284088698E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1.7164536103775E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1.6605314920626099E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1.11613844588992E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1.6380544458165999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1.6750078635588899E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1.6831487898192901E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1.6018949019095199E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1.62646623273889E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1.5796697657608199E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1.6839858052553201E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1.7085641587873901E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1.6894193781678099E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1.69779340152298E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1.75853748922946E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1.7640683933558499E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1.6557003761246799E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1.5848861892079701E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1.5640811112565801E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1.5906272445902599E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1.8124671291441401E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1.6436394617567299E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1.6173700486278399E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1.7401193898343398E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1.6764227213506799E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1.59160956248353E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1.6665114130291901E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1.66330169681582E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1.87270108784959E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/channel_weights/channel_weights_LD.xlsx
+++ b/channel_weights/channel_weights_LD.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\channel_weights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\channel_weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D9EABE-938A-4059-A87A-1C3B5BBC7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF7C59-B22A-4E02-9272-884356A96D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label_driven_mi_10_15" sheetId="6" r:id="rId1"/>
     <sheet name="label_driven_anova_10_15" sheetId="7" r:id="rId2"/>
-    <sheet name="label_pcc_10_15" sheetId="8" r:id="rId3"/>
-    <sheet name="label_sc_10_15" sheetId="9" r:id="rId4"/>
-    <sheet name="label_cc_10_15" sheetId="10" r:id="rId5"/>
+    <sheet name="label_driven_pcc_10_15" sheetId="8" r:id="rId3"/>
+    <sheet name="label_driven_sc_10_15" sheetId="9" r:id="rId4"/>
+    <sheet name="label_driven_cc_10_15" sheetId="10" r:id="rId5"/>
     <sheet name="label_driven_mi" sheetId="1" r:id="rId6"/>
     <sheet name="label_driven_anova" sheetId="3" r:id="rId7"/>
     <sheet name="label_driven_pcc" sheetId="2" r:id="rId8"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD14C98-9985-4DA2-8864-68251F4717D3}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3236,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161221AD-EA26-4D1B-91E6-981816B817A5}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
